--- a/PLR_do/bubble_data/bubble_data10.xlsx
+++ b/PLR_do/bubble_data/bubble_data10.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miaosilin\Desktop\Population_land_realestate\PLR_do\bubble_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1F5469-1479-4C47-852D-CD5CC0A0E5F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D996691-F37B-4866-9FEA-96B9D2773C16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D16"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -486,16 +486,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>0.98899999999999999</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="C2" s="2">
-        <v>0.71499999999999997</v>
+        <v>0.627</v>
       </c>
       <c r="D2" s="2">
-        <v>0.84099999999999997</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="E2" s="2" t="str">
-        <f t="shared" ref="E2:E16" si="0">IF(AND(B2&gt;0.9,C2&gt;0.4),"1",IF(AND(B2&gt;0.9,C2&lt;0.4),"2",IF(AND(B2&lt;0.9,C2&lt;0.4),"3","4")))</f>
+        <f>IF(AND(B2&gt;0.8,C2&gt;0.5),"1",IF(AND(B2&gt;0.8,C2&gt;0.3),"2",IF(AND(B2&gt;0.8,C2&lt;0.3),"3","4")))</f>
         <v>1</v>
       </c>
     </row>
@@ -504,17 +504,17 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>0.998</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="C3" s="2">
-        <v>0.47299999999999998</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="D3" s="2">
-        <v>0.68700000000000006</v>
+        <v>0.63</v>
       </c>
       <c r="E3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ref="E3:E16" si="0">IF(AND(B3&gt;0.8,C3&gt;0.5),"1",IF(AND(B3&gt;0.8,C3&gt;0.3),"2",IF(AND(B3&gt;0.8,C3&lt;0.3),"3","4")))</f>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -522,13 +522,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>0.76300000000000001</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="C4" s="2">
-        <v>0.23899999999999999</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="D4" s="2">
-        <v>0.42699999999999999</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="E4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -540,13 +540,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>0.54300000000000004</v>
+        <v>0.89800000000000002</v>
       </c>
       <c r="C5" s="2">
-        <v>0.20799999999999999</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="D5" s="2">
-        <v>0.33600000000000002</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="E5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -558,13 +558,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>0.72</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="C6" s="2">
-        <v>0.23799999999999999</v>
+        <v>0.08</v>
       </c>
       <c r="D6" s="2">
-        <v>0.41399999999999998</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="E6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -576,13 +576,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>0.64600000000000002</v>
+        <v>0.98</v>
       </c>
       <c r="C7" s="2">
-        <v>0.16400000000000001</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D7" s="2">
-        <v>0.32500000000000001</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -594,13 +594,13 @@
         <v>11</v>
       </c>
       <c r="B8" s="2">
-        <v>0.54600000000000004</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="C8" s="2">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D8" s="2">
         <v>0.21</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.33900000000000002</v>
       </c>
       <c r="E8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -612,13 +612,13 @@
         <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>0.60899999999999999</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="C9" s="2">
-        <v>0.20399999999999999</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="D9" s="2">
-        <v>0.35299999999999998</v>
+        <v>0.224</v>
       </c>
       <c r="E9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -630,17 +630,17 @@
         <v>13</v>
       </c>
       <c r="B10" s="2">
-        <v>0.68500000000000005</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="C10" s="2">
-        <v>0.23599999999999999</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="D10" s="2">
-        <v>0.40200000000000002</v>
+        <v>0.42</v>
       </c>
       <c r="E10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -648,13 +648,13 @@
         <v>14</v>
       </c>
       <c r="B11" s="2">
-        <v>0.71099999999999997</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="C11" s="2">
-        <v>0.184</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="D11" s="2">
-        <v>0.36199999999999999</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="E11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -666,13 +666,13 @@
         <v>15</v>
       </c>
       <c r="B12" s="2">
-        <v>0.69199999999999995</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="C12" s="2">
-        <v>0.24299999999999999</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="D12" s="2">
-        <v>0.41</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="E12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -684,13 +684,13 @@
         <v>16</v>
       </c>
       <c r="B13" s="2">
-        <v>0.66400000000000003</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="C13" s="2">
-        <v>0.215</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="D13" s="2">
-        <v>0.378</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="E13" s="2" t="str">
         <f t="shared" si="0"/>
@@ -702,13 +702,13 @@
         <v>17</v>
       </c>
       <c r="B14" s="2">
-        <v>0.53600000000000003</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="C14" s="2">
-        <v>0.248</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D14" s="2">
-        <v>0.36399999999999999</v>
+        <v>0.253</v>
       </c>
       <c r="E14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -720,13 +720,13 @@
         <v>18</v>
       </c>
       <c r="B15" s="2">
-        <v>0.39900000000000002</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="C15" s="2">
-        <v>0.19400000000000001</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="D15" s="2">
-        <v>0.27800000000000002</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="E15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -738,13 +738,13 @@
         <v>19</v>
       </c>
       <c r="B16" s="2">
-        <v>0.56299999999999994</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="C16" s="2">
-        <v>0.19400000000000001</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D16" s="2">
-        <v>0.33</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="E16" s="2" t="str">
         <f t="shared" si="0"/>
